--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22A3200-1812-4EA7-B350-FD1EBCFC0B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19635" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="1" r:id="rId1"/>
+    <sheet name="Payments2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -232,52 +216,475 @@
   </si>
   <si>
     <t>dinersclub</t>
+  </si>
+  <si>
+    <t>StateCode</t>
+  </si>
+  <si>
+    <t>SaleItemQuantity</t>
+  </si>
+  <si>
+    <t>AmountTendered</t>
+  </si>
+  <si>
+    <t>QuickSaleItemNameTwo</t>
+  </si>
+  <si>
+    <t>QuickSaleItemPriceTwo</t>
+  </si>
+  <si>
+    <t>QuickSaleItemTaxTwo</t>
+  </si>
+  <si>
+    <t>AccountNickName</t>
+  </si>
+  <si>
+    <t>RoutingNumber</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>RecurringStatus</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>SearchTransactionField</t>
+  </si>
+  <si>
+    <t>ShippingMethod</t>
+  </si>
+  <si>
+    <t>TC_12206</t>
+  </si>
+  <si>
+    <t>Credit/Refund</t>
+  </si>
+  <si>
+    <t>IATS ZENTRO</t>
+  </si>
+  <si>
+    <t>avins</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>Testcust@gmail.com</t>
+  </si>
+  <si>
+    <t>ACH/EFT</t>
+  </si>
+  <si>
+    <t>12st Main Road</t>
+  </si>
+  <si>
+    <t>New Holland</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Buy Product</t>
+  </si>
+  <si>
+    <t>ACH Account</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>TC_12208</t>
+  </si>
+  <si>
+    <t>avinsgod@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -285,30 +692,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -390,26 +1085,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -442,23 +1120,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,38 +1261,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="18.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="19.2857142857143" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="22" width="17.28515625" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="21.4285714285714" customWidth="1"/>
+    <col min="18" max="20" width="16.4285714285714" customWidth="1"/>
+    <col min="21" max="22" width="17.2857142857143" customWidth="1"/>
+    <col min="32" max="32" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -695,10 +1351,10 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -738,7 +1394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -751,7 +1407,7 @@
       <c r="E2">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I2">
@@ -760,7 +1416,7 @@
       <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L2">
@@ -828,7 +1484,7 @@
       <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I3">
@@ -837,7 +1493,7 @@
       <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="10" t="s">
         <v>39</v>
       </c>
       <c r="L3">
@@ -870,10 +1526,10 @@
       <c r="AF3" t="b">
         <v>0</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -890,7 +1546,7 @@
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I4">
@@ -899,7 +1555,7 @@
       <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L4">
@@ -947,10 +1603,10 @@
       <c r="AF4" t="b">
         <v>0</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH4" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -967,7 +1623,7 @@
       <c r="E5">
         <v>55</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I5">
@@ -976,7 +1632,7 @@
       <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="9" t="s">
         <v>58</v>
       </c>
       <c r="L5">
@@ -1027,10 +1683,10 @@
       <c r="AF5" t="b">
         <v>1</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1047,7 +1703,7 @@
       <c r="E6">
         <v>55</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I6">
@@ -1056,7 +1712,7 @@
       <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="9" t="s">
         <v>62</v>
       </c>
       <c r="L6">
@@ -1113,10 +1769,10 @@
       <c r="AF6" t="b">
         <v>1</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1133,7 +1789,7 @@
       <c r="E7">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I7">
@@ -1142,7 +1798,7 @@
       <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="L7">
@@ -1184,30 +1840,310 @@
       <c r="AF7" t="b">
         <v>1</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="AG8" s="2" t="s">
+    <row r="8" spans="33:34">
+      <c r="AG8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="9" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{A1451763-5D6F-4816-AA0A-B3215E232D9F}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{D1428BDC-B790-455D-BBC1-37B923268189}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{0FF48CAA-353C-44EC-B49A-48B3FDB691C9}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{407A9E7C-3F14-4AD8-BB85-C4BCBA63E87B}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{E10D4276-F3E1-4124-B1E5-422134A1F8F2}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{1FCC6AFE-A186-42D8-BF07-6E3C73DC6AA9}"/>
+    <hyperlink ref="H4" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H6" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H7" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId1" display="test@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7142857142857" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="16384" width="21.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:43">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:38">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1231233332</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="2">
+        <v>17557</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>123123123</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:29">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1231233332</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="1">
+        <v>43567</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="Testcust@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="avinsgod@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Payments" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="170">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -491,22 +492,40 @@
     <t>Blvd founders</t>
   </si>
   <si>
+    <t xml:space="preserve"> 5/13 ZENTRO PROD TEST (6280490007587520)</t>
+  </si>
+  <si>
     <t>umeshtest@testingxperts.com</t>
   </si>
   <si>
     <t>(122) 234-2342</t>
   </si>
   <si>
+    <t>Default Tax Rate</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
     <t>CA - California</t>
   </si>
   <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>5/13 ZENTRO PROD TEST (6280490007587520)</t>
+  </si>
+  <si>
+    <t>Sale Tax</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
     <t>US/CA (+1)</t>
   </si>
   <si>
     <t>Discount WR</t>
-  </si>
-  <si>
-    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1162,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1472,7 +1491,7 @@
   <dimension ref="A1:AP1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1565,7 +1584,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1654,7 +1673,7 @@
       <c r="E2">
         <v>50</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I2">
@@ -1728,7 +1747,7 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I3">
@@ -1799,7 +1818,7 @@
       <c r="E4">
         <v>55</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I4">
@@ -1873,7 +1892,7 @@
       <c r="E5">
         <v>55</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I5">
@@ -1950,7 +1969,7 @@
       <c r="E6">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I6">
@@ -2178,7 +2197,7 @@
       <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>1117</v>
       </c>
       <c r="M10" t="s">
@@ -2305,7 +2324,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I12" s="1">
@@ -2367,7 +2386,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="1">
@@ -2533,7 +2552,7 @@
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I16" s="1">
@@ -2622,7 +2641,7 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I17" s="1">
@@ -2687,7 +2706,7 @@
       <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I18" s="1">
@@ -2734,7 +2753,7 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I19" s="1">
@@ -2810,7 +2829,7 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I20" s="1">
@@ -2884,7 +2903,7 @@
       <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>125</v>
       </c>
       <c r="I21">
@@ -2958,7 +2977,7 @@
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I22" s="1">
@@ -2967,7 +2986,7 @@
       <c r="J22" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>36123409853619</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -3017,7 +3036,7 @@
       <c r="E23" s="1">
         <v>50</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I23" s="1">
@@ -3026,7 +3045,7 @@
       <c r="J23" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>36123409853619</v>
       </c>
       <c r="L23" s="8" t="s">
@@ -3088,7 +3107,7 @@
       <c r="G24" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>131</v>
       </c>
       <c r="I24" s="1">
@@ -3097,7 +3116,7 @@
       <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>378282246310005</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -3168,7 +3187,7 @@
       <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I25" s="1">
@@ -3177,7 +3196,7 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>6011111111111110</v>
       </c>
       <c r="L25" s="8" t="s">
@@ -3245,7 +3264,7 @@
       <c r="J26" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>36123409853619</v>
       </c>
       <c r="M26" t="s">
@@ -3292,7 +3311,7 @@
       <c r="G30" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I30" s="1">
@@ -3301,7 +3320,7 @@
       <c r="J30" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>4012888888881880</v>
       </c>
       <c r="L30">
@@ -3366,7 +3385,7 @@
       <c r="G31" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I31">
@@ -3375,7 +3394,7 @@
       <c r="J31" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>5555555555554440</v>
       </c>
       <c r="L31">
@@ -3443,7 +3462,7 @@
       <c r="G32" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I32">
@@ -3452,7 +3471,7 @@
       <c r="J32" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>378282246310005</v>
       </c>
       <c r="L32">
@@ -3517,7 +3536,7 @@
       <c r="G33" t="s">
         <v>139</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I33">
@@ -3526,7 +3545,7 @@
       <c r="J33" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>6011111111111110</v>
       </c>
       <c r="L33">
@@ -3600,7 +3619,7 @@
       <c r="G34" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I34">
@@ -3609,7 +3628,7 @@
       <c r="J34" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>378282246310005</v>
       </c>
       <c r="L34">
@@ -3674,7 +3693,7 @@
       <c r="G35" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>156</v>
       </c>
       <c r="I35">
@@ -3760,17 +3779,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="44.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
@@ -3864,7 +3883,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -3940,7 +3959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" customFormat="1" spans="1:29">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3948,7 +3967,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -3960,15 +3979,15 @@
         <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>1117</v>
       </c>
       <c r="M2" t="s">
@@ -3978,19 +3997,19 @@
         <v>78</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="S2" t="s">
         <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="U2" t="s">
         <v>81</v>
@@ -4002,16 +4021,16 @@
         <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
         <v>82</v>
       </c>
       <c r="Z2" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="AB2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>2</v>
@@ -4030,7 +4049,7 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I3">
@@ -4058,7 +4077,7 @@
         <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S3" t="s">
         <v>52</v>
@@ -4101,7 +4120,7 @@
       <c r="E4">
         <v>55</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I4">
@@ -4166,13 +4185,210 @@
       </c>
       <c r="AC4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1231233332</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="1">
+        <v>17557</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>12345</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI5">
+        <v>123123123</v>
+      </c>
+      <c r="AJ5">
+        <v>123456789</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="umeshtest@testingxperts.com" tooltip="mailto:umeshtest@testingxperts.com"/>
-    <hyperlink ref="H3" r:id="rId2" display="test@gmail.com"/>
-    <hyperlink ref="H4" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="umeshtest@testingxperts.com" tooltip="mailto:umeshtest@testingxperts.com"/>
+    <hyperlink ref="H5" r:id="rId3" display="Testcust@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="60" spans="1:29">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3">
+        <v>1117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1">
+        <v>87686</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" display="umeshtest@testingxperts.com" tooltip="mailto:umeshtest@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22A3200-1812-4EA7-B350-FD1EBCFC0B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FF9591-AD7A-4469-8E2C-8554B4A3269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -232,13 +232,37 @@
   </si>
   <si>
     <t>dinersclub</t>
+  </si>
+  <si>
+    <t>TC_11043</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>amextest@gmail.com</t>
+  </si>
+  <si>
+    <t>0832</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>12stMainRoad</t>
+  </si>
+  <si>
+    <t>NewHolland</t>
+  </si>
+  <si>
+    <t>Buy Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +292,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,12 +319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,6 +1224,85 @@
       </c>
     </row>
     <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1231233332</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6">
+        <v>378282246310005</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>17557</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8">
+        <v>12345</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
       <c r="AG8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1207,6 +1318,7 @@
     <hyperlink ref="H6" r:id="rId4" xr:uid="{407A9E7C-3F14-4AD8-BB85-C4BCBA63E87B}"/>
     <hyperlink ref="H7" r:id="rId5" xr:uid="{E10D4276-F3E1-4124-B1E5-422134A1F8F2}"/>
     <hyperlink ref="H3" r:id="rId6" xr:uid="{1FCC6AFE-A186-42D8-BF07-6E3C73DC6AA9}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{1A10BA7E-B5CD-4694-A3B3-BDFDF3B6FD34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -1874,8 +1874,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7142857142857" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -3781,8 +3781,8 @@
   <sheetPr/>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -4197,12 +4197,9 @@
       <c r="C5" t="s">
         <v>105</v>
       </c>
-      <c r="D5"/>
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
       <c r="H5" s="5" t="s">
         <v>93</v>
       </c>
@@ -4212,9 +4209,6 @@
       <c r="J5" t="s">
         <v>106</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
       <c r="N5" t="s">
         <v>85</v>
       </c>
@@ -4224,8 +4218,6 @@
       <c r="P5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5"/>
       <c r="S5" s="1" t="s">
         <v>96</v>
       </c>
@@ -4256,13 +4248,11 @@
       <c r="AB5" t="b">
         <v>1</v>
       </c>
-      <c r="AC5"/>
-      <c r="AD5"/>
       <c r="AE5" t="s">
         <v>108</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG5" t="s">
         <v>61</v>

--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="196">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -492,6 +492,33 @@
     <t>Blvd founders</t>
   </si>
   <si>
+    <t>PaymentOptionCustomerVault</t>
+  </si>
+  <si>
+    <t>PaymentTypeCustomerVault</t>
+  </si>
+  <si>
+    <t>SubMissionMethod</t>
+  </si>
+  <si>
+    <t>ProcessingFee</t>
+  </si>
+  <si>
+    <t>CustomerIpAddress</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>CustomerStateCode</t>
+  </si>
+  <si>
+    <t>TransactionTypeinTransactionReport</t>
+  </si>
+  <si>
+    <t>PaymentTypeTransactionReport</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5/13 ZENTRO PROD TEST (6280490007587520)</t>
   </si>
   <si>
@@ -513,6 +540,96 @@
     <t>Fruits</t>
   </si>
   <si>
+    <t>6/15 ZENTRO TEST FOR ROBERT ESA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF313131"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <t>565 Block 2067 Hickory Lane Camden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NJ - New Jersey</t>
+    </r>
+  </si>
+  <si>
+    <t>NewJersey</t>
+  </si>
+  <si>
+    <t>08104</t>
+  </si>
+  <si>
+    <t>ACH</t>
+  </si>
+  <si>
+    <t>ACH/EFT - DEBIT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF313131"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Portal-Virtual Terminal</t>
+    </r>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF313131"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>106.212.232.160</t>
+    </r>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ACH DEBIT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ACH Checking</t>
+    </r>
+  </si>
+  <si>
     <t>5/13 ZENTRO PROD TEST (6280490007587520)</t>
   </si>
   <si>
@@ -526,6 +643,23 @@
   </si>
   <si>
     <t>Discount WR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6/15 ZENTRO TEST FOR ROBERT ESA</t>
+    </r>
+  </si>
+  <si>
+    <t>NewHolland</t>
+  </si>
+  <si>
+    <t>TX</t>
   </si>
 </sst>
 </file>
@@ -538,7 +672,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +693,18 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1029,146 +1175,150 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,7 +1734,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1673,7 +1823,7 @@
       <c r="E2">
         <v>50</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I2">
@@ -1682,7 +1832,7 @@
       <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>47</v>
       </c>
       <c r="L2">
@@ -1747,7 +1897,7 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I3">
@@ -1756,7 +1906,7 @@
       <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="12" t="s">
         <v>59</v>
       </c>
       <c r="L3">
@@ -1818,7 +1968,7 @@
       <c r="E4">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I4">
@@ -1827,7 +1977,7 @@
       <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L4">
@@ -1892,7 +2042,7 @@
       <c r="E5">
         <v>55</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I5">
@@ -1901,7 +2051,7 @@
       <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L5">
@@ -1969,7 +2119,7 @@
       <c r="E6">
         <v>35</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I6">
@@ -1978,7 +2128,7 @@
       <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="12" t="s">
         <v>70</v>
       </c>
       <c r="L6">
@@ -2197,7 +2347,7 @@
       <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>1117</v>
       </c>
       <c r="M10" t="s">
@@ -2324,7 +2474,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I12" s="1">
@@ -2386,7 +2536,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="1">
@@ -2455,7 +2605,7 @@
         <v>102</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>94</v>
@@ -2552,7 +2702,7 @@
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I16" s="1">
@@ -2641,7 +2791,7 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I17" s="1">
@@ -2706,7 +2856,7 @@
       <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>119</v>
       </c>
       <c r="I18" s="1">
@@ -2753,7 +2903,7 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I19" s="1">
@@ -2829,7 +2979,7 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I20" s="1">
@@ -2903,7 +3053,7 @@
       <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="I21">
@@ -2912,10 +3062,10 @@
       <c r="J21" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="11" t="s">
         <v>126</v>
       </c>
       <c r="M21" t="s">
@@ -2977,7 +3127,7 @@
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I22" s="1">
@@ -2986,10 +3136,10 @@
       <c r="J22" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <v>36123409853619</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M22" t="s">
@@ -3036,7 +3186,7 @@
       <c r="E23" s="1">
         <v>50</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I23" s="1">
@@ -3045,10 +3195,10 @@
       <c r="J23" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <v>36123409853619</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M23" t="s">
@@ -3107,7 +3257,7 @@
       <c r="G24" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>131</v>
       </c>
       <c r="I24" s="1">
@@ -3116,10 +3266,10 @@
       <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <v>378282246310005</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="11" t="s">
         <v>126</v>
       </c>
       <c r="M24" t="s">
@@ -3187,7 +3337,7 @@
       <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I25" s="1">
@@ -3196,10 +3346,10 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <v>6011111111111110</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="11" t="s">
         <v>126</v>
       </c>
       <c r="M25" t="s">
@@ -3264,7 +3414,7 @@
       <c r="J26" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <v>36123409853619</v>
       </c>
       <c r="M26" t="s">
@@ -3311,7 +3461,7 @@
       <c r="G30" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I30" s="1">
@@ -3320,7 +3470,7 @@
       <c r="J30" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <v>4012888888881880</v>
       </c>
       <c r="L30">
@@ -3385,7 +3535,7 @@
       <c r="G31" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I31">
@@ -3394,7 +3544,7 @@
       <c r="J31" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <v>5555555555554440</v>
       </c>
       <c r="L31">
@@ -3462,7 +3612,7 @@
       <c r="G32" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I32">
@@ -3471,7 +3621,7 @@
       <c r="J32" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <v>378282246310005</v>
       </c>
       <c r="L32">
@@ -3536,7 +3686,7 @@
       <c r="G33" t="s">
         <v>139</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I33">
@@ -3545,7 +3695,7 @@
       <c r="J33" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <v>6011111111111110</v>
       </c>
       <c r="L33">
@@ -3619,7 +3769,7 @@
       <c r="G34" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I34">
@@ -3628,7 +3778,7 @@
       <c r="J34" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <v>378282246310005</v>
       </c>
       <c r="L34">
@@ -3693,7 +3843,7 @@
       <c r="G35" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I35">
@@ -3779,10 +3929,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -3829,9 +3979,17 @@
     <col min="40" max="40" width="5.14285714285714" customWidth="1"/>
     <col min="41" max="41" width="23.4285714285714" customWidth="1"/>
     <col min="42" max="42" width="17" customWidth="1"/>
+    <col min="43" max="43" width="31.1428571428571" customWidth="1"/>
+    <col min="44" max="44" width="29.1428571428571" customWidth="1"/>
+    <col min="45" max="45" width="22.8571428571429" customWidth="1"/>
+    <col min="46" max="46" width="14.8571428571429" customWidth="1"/>
+    <col min="47" max="47" width="20.1428571428571" customWidth="1"/>
+    <col min="49" max="49" width="20.4285714285714" customWidth="1"/>
+    <col min="50" max="50" width="36.8571428571429" customWidth="1"/>
+    <col min="51" max="51" width="32.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +4041,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -3957,6 +4115,33 @@
       </c>
       <c r="AP1" t="s">
         <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:29">
@@ -3967,7 +4152,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -3979,15 +4164,15 @@
         <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>1117</v>
       </c>
       <c r="M2" t="s">
@@ -4000,16 +4185,16 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="S2" t="s">
         <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="U2" t="s">
         <v>81</v>
@@ -4049,7 +4234,7 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I3">
@@ -4058,7 +4243,7 @@
       <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="12" t="s">
         <v>59</v>
       </c>
       <c r="L3">
@@ -4077,7 +4262,7 @@
         <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="S3" t="s">
         <v>52</v>
@@ -4120,7 +4305,7 @@
       <c r="E4">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I4">
@@ -4129,7 +4314,7 @@
       <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L4">
@@ -4187,28 +4372,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:39">
+    <row r="5" customFormat="1" spans="1:51">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>105</v>
+      <c r="C5" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I5" s="1">
-        <v>1231233332</v>
+        <v>8546223354</v>
       </c>
       <c r="J5" t="s">
         <v>106</v>
       </c>
+      <c r="K5">
+        <v>6789</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="N5" t="s">
         <v>85</v>
       </c>
@@ -4219,16 +4410,16 @@
         <v>100</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>52</v>
+        <v>176</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="1">
-        <v>17557</v>
+        <v>178</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>53</v>
@@ -4243,7 +4434,7 @@
         <v>107</v>
       </c>
       <c r="AA5" s="1">
-        <v>12345</v>
+        <v>123456</v>
       </c>
       <c r="AB5" t="b">
         <v>1</v>
@@ -4274,6 +4465,33 @@
       </c>
       <c r="AM5" t="s">
         <v>112</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>24791</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4291,13 +4509,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="60" spans="1:29">
       <c r="A1" t="s">
@@ -4307,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
         <v>73</v>
@@ -4319,15 +4537,15 @@
         <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>1117</v>
       </c>
       <c r="M1" t="s">
@@ -4340,16 +4558,16 @@
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="Q1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
         <v>81</v>
@@ -4361,24 +4579,144 @@
         <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="Y1" t="s">
         <v>82</v>
       </c>
       <c r="Z1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AB1" t="b">
         <v>0</v>
       </c>
       <c r="AC1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:50">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1231233332</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2">
+        <v>6789</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V2" s="1">
+        <v>17557</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2">
+        <v>123123123</v>
+      </c>
+      <c r="AJ2">
+        <v>123456789</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>24791</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" display="umeshtest@testingxperts.com" tooltip="mailto:umeshtest@testingxperts.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="Testcust@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/DPPTestData.xlsx
+++ b/TestData/DPPTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A219F0-FA9B-4A80-BB7E-04B08F5679D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A8DEF7-40DC-4EFB-B199-9BD7E065F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="158">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -249,6 +249,15 @@
     <t>dinersclub</t>
   </si>
   <si>
+    <t>TC_11059</t>
+  </si>
+  <si>
+    <t>Credit/Refund</t>
+  </si>
+  <si>
+    <t>ZENTRO PROD TEST</t>
+  </si>
+  <si>
     <t>TC_11013</t>
   </si>
   <si>
@@ -309,9 +318,6 @@
     <t>TC_18534</t>
   </si>
   <si>
-    <t>ZENTRO PROD TEST</t>
-  </si>
-  <si>
     <t>Testcust@gmail.com</t>
   </si>
   <si>
@@ -375,9 +381,6 @@
     <t>TC_12206</t>
   </si>
   <si>
-    <t>Credit/Refund</t>
-  </si>
-  <si>
     <t>IATS ZENTRO</t>
   </si>
   <si>
@@ -469,9 +472,6 @@
   </si>
   <si>
     <t>new holland</t>
-  </si>
-  <si>
-    <t>JPRDisc</t>
   </si>
   <si>
     <t>TC_11032</t>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,8 +917,8 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
@@ -1436,39 +1436,89 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>1231233332</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <v>1030</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7">
+        <v>12343</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="8" spans="1:42" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8">
         <v>1222342342</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8">
         <v>4444</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1477,16 +1527,16 @@
         <v>61</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V8">
         <v>87686</v>
@@ -1498,10 +1548,10 @@
         <v>54</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -1509,22 +1559,22 @@
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I9">
         <v>1222342342</v>
@@ -1539,7 +1589,7 @@
         <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O9">
         <v>20</v>
@@ -1548,16 +1598,16 @@
         <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V9">
         <v>87686</v>
@@ -1569,39 +1619,39 @@
         <v>54</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF9">
         <v>10</v>
       </c>
       <c r="AG9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <v>1222342342</v>
@@ -1616,25 +1666,25 @@
         <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O10">
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V10">
         <v>87686</v>
@@ -1646,7 +1696,7 @@
         <v>54</v>
       </c>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="b">
         <v>0</v>
@@ -1657,22 +1707,22 @@
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>1222342342</v>
@@ -1684,10 +1734,10 @@
         <v>3619</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O11">
         <v>20</v>
@@ -1696,13 +1746,13 @@
         <v>61</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V11">
         <v>87686</v>
@@ -1714,7 +1764,7 @@
         <v>54</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="b">
         <v>0</v>
@@ -1722,13 +1772,13 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
@@ -1737,13 +1787,13 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I12" s="6">
         <v>1231233332</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1752,16 +1802,16 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V12" s="6">
         <v>17557</v>
@@ -1773,10 +1823,10 @@
         <v>54</v>
       </c>
       <c r="Y12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA12" s="6">
         <v>12345</v>
@@ -1784,13 +1834,13 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
@@ -1799,13 +1849,13 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I13" s="6">
         <v>1231233332</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1817,17 +1867,17 @@
         <v>10</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="S13" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V13" s="6">
         <v>17557</v>
@@ -1839,10 +1889,10 @@
         <v>54</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="6"/>
       <c r="AD13" s="6">
@@ -1851,26 +1901,26 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1882,20 +1932,33 @@
         <v>10</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="S14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14" s="6">
+        <v>17557</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA14" s="6">
         <v>12345</v>
@@ -1904,26 +1967,26 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1932,19 +1995,32 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="S15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15" s="6">
+        <v>17557</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA15" s="6"/>
       <c r="AD15" s="6">
@@ -1953,43 +2029,43 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I16" s="6">
         <v>1231233332</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O16">
         <v>2</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V16" s="6">
         <v>17557</v>
@@ -2001,10 +2077,10 @@
         <v>54</v>
       </c>
       <c r="Y16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA16" s="6">
         <v>12345</v>
@@ -2013,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF16">
         <v>2</v>
@@ -2022,7 +2098,7 @@
         <v>61</v>
       </c>
       <c r="AH16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI16">
         <v>123123123</v>
@@ -2031,45 +2107,45 @@
         <v>123456789</v>
       </c>
       <c r="AK16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AL16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AM16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I17" s="6">
         <v>1231233332</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>52</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V17" s="6">
         <v>17557</v>
@@ -2081,13 +2157,13 @@
         <v>54</v>
       </c>
       <c r="Y17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="b">
         <v>1</v>
       </c>
       <c r="AH17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI17">
         <v>123123123</v>
@@ -2096,39 +2172,39 @@
         <v>123456789</v>
       </c>
       <c r="AK17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
         <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
       </c>
       <c r="E18" s="9">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I18" s="9">
         <v>1231233332</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T18" s="9" t="s">
         <v>52</v>
@@ -2146,7 +2222,7 @@
         <v>54</v>
       </c>
       <c r="Y18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="b">
         <v>1</v>
@@ -2154,35 +2230,35 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I19" s="6">
         <v>1231233332</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>52</v>
@@ -2200,17 +2276,17 @@
         <v>54</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA19" s="6"/>
       <c r="AB19" t="b">
         <v>1</v>
       </c>
       <c r="AH19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI19">
         <v>123123123</v>
@@ -2219,39 +2295,39 @@
         <v>123456789</v>
       </c>
       <c r="AK19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AL19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AM19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="6">
         <v>1231233332</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O20">
         <v>4</v>
@@ -2260,13 +2336,13 @@
         <v>61</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V20" s="9">
         <v>17557</v>
@@ -2278,13 +2354,13 @@
         <v>54</v>
       </c>
       <c r="Y20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI20">
         <v>123123123</v>
@@ -2293,30 +2369,30 @@
         <v>123456789</v>
       </c>
       <c r="AK20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I21">
         <v>6300633132</v>
@@ -2328,31 +2404,31 @@
         <v>59</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V21" s="9">
         <v>17557</v>
@@ -2364,10 +2440,10 @@
         <v>54</v>
       </c>
       <c r="Y21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA21">
         <v>12345</v>
@@ -2378,19 +2454,19 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E22" s="6">
         <v>10</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I22" s="6">
         <v>1231233332</v>
@@ -2402,22 +2478,22 @@
         <v>36123409853619</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" t="s">
         <v>71</v>
       </c>
       <c r="Q22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T22" s="9" t="s">
         <v>52</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V22" s="9">
         <v>17557</v>
@@ -2429,27 +2505,27 @@
         <v>54</v>
       </c>
       <c r="Y22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E23" s="9">
         <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I23" s="9">
         <v>1231233332</v>
@@ -2461,13 +2537,13 @@
         <v>36123409853619</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
         <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O23">
         <v>4</v>
@@ -2476,13 +2552,13 @@
         <v>61</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T23" s="9" t="s">
         <v>52</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V23" s="9">
         <v>17557</v>
@@ -2494,21 +2570,21 @@
         <v>54</v>
       </c>
       <c r="Y23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9">
         <v>10</v>
@@ -2517,10 +2593,10 @@
         <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I24" s="9">
         <v>1231233332</v>
@@ -2532,13 +2608,13 @@
         <v>378282246310005</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s">
         <v>64</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O24">
         <v>5</v>
@@ -2547,16 +2623,16 @@
         <v>61</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V24" s="9">
         <v>17557</v>
@@ -2568,10 +2644,10 @@
         <v>54</v>
       </c>
       <c r="Y24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA24">
         <v>12345</v>
@@ -2582,13 +2658,13 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E25" s="9">
         <v>10</v>
@@ -2597,10 +2673,10 @@
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="9">
         <v>1231233332</v>
@@ -2612,13 +2688,13 @@
         <v>6011111111111110</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s">
         <v>68</v>
       </c>
       <c r="N25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O25">
         <v>5</v>
@@ -2627,16 +2703,16 @@
         <v>61</v>
       </c>
       <c r="Q25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T25" s="9" t="s">
         <v>52</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V25" s="9">
         <v>17557</v>
@@ -2648,10 +2724,10 @@
         <v>54</v>
       </c>
       <c r="Y25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA25">
         <v>12345</v>
@@ -2662,13 +2738,13 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -2683,7 +2759,7 @@
         <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O26">
         <v>5</v>
@@ -2691,40 +2767,40 @@
       <c r="P26" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="9" t="s">
-        <v>83</v>
+      <c r="Z26" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AE26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF26">
         <v>5</v>
       </c>
       <c r="AG26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I30" s="9">
         <v>1231233332</v>
@@ -2732,32 +2808,32 @@
       <c r="J30" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="5">
-        <v>4012888888881880</v>
+      <c r="K30" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="L30">
         <v>444</v>
       </c>
       <c r="N30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O30">
         <v>20</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V30">
         <v>30606</v>
@@ -2769,10 +2845,10 @@
         <v>54</v>
       </c>
       <c r="Y30" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>146</v>
+        <v>85</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
@@ -2786,19 +2862,19 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I31">
         <v>1231234567</v>
@@ -2813,7 +2889,7 @@
         <v>444</v>
       </c>
       <c r="N31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O31">
         <v>20</v>
@@ -2822,16 +2898,16 @@
         <v>61</v>
       </c>
       <c r="Q31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T31" t="s">
         <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V31">
         <v>30606</v>
@@ -2843,10 +2919,10 @@
         <v>54</v>
       </c>
       <c r="Y31" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>146</v>
+        <v>85</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AB31" t="b">
         <v>1</v>
@@ -2863,19 +2939,19 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I32">
         <v>1231233456</v>
@@ -2890,7 +2966,7 @@
         <v>444</v>
       </c>
       <c r="N32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O32">
         <v>20</v>
@@ -2899,16 +2975,16 @@
         <v>61</v>
       </c>
       <c r="Q32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T32" t="s">
         <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V32">
         <v>30606</v>
@@ -2922,8 +2998,8 @@
       <c r="Y32" t="s">
         <v>55</v>
       </c>
-      <c r="Z32" t="s">
-        <v>146</v>
+      <c r="Z32" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AB32" t="b">
         <v>0</v>
@@ -2931,13 +3007,13 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -2946,10 +3022,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I33">
         <v>1231234567</v>
@@ -2964,7 +3040,7 @@
         <v>444</v>
       </c>
       <c r="N33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O33">
         <v>20</v>
@@ -2973,16 +3049,16 @@
         <v>61</v>
       </c>
       <c r="Q33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T33" t="s">
         <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V33">
         <v>30606</v>
@@ -2996,14 +3072,14 @@
       <c r="Y33" t="s">
         <v>55</v>
       </c>
-      <c r="Z33" t="s">
-        <v>146</v>
+      <c r="Z33" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AB33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AF33">
         <v>10</v>
@@ -3020,19 +3096,19 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I34">
         <v>1231233456</v>
@@ -3047,25 +3123,25 @@
         <v>444</v>
       </c>
       <c r="N34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O34">
         <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T34" t="s">
         <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V34">
         <v>30606</v>
@@ -3079,8 +3155,8 @@
       <c r="Y34" t="s">
         <v>55</v>
       </c>
-      <c r="Z34" t="s">
-        <v>146</v>
+      <c r="Z34" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AB34" t="b">
         <v>0</v>
@@ -3112,16 +3188,16 @@
         <v>1232342345</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>7244</v>
       </c>
       <c r="Q35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T35" t="s">
         <v>52</v>
@@ -3142,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1048576" spans="23:23">
@@ -3179,6 +3255,7 @@
     <hyperlink ref="H25" r:id="rId25" xr:uid="{65ACEB14-AF2C-4F1E-8565-4C9DB2D5C97A}"/>
     <hyperlink ref="H34" r:id="rId26" xr:uid="{2B0C1DEC-1D6F-44EB-9210-EA4E14E97292}"/>
     <hyperlink ref="H35" r:id="rId27" xr:uid="{CE31851B-DC0B-4A81-B0F0-A893DCBC9DFD}"/>
+    <hyperlink ref="H7" r:id="rId28" xr:uid="{5975CB8A-7DB4-417F-AB31-9DF5723D3932}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
